--- a/src/main/resources/health-career-me-structure.xlsx
+++ b/src/main/resources/health-career-me-structure.xlsx
@@ -374,7 +374,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="2" fillId="3" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -386,8 +386,9 @@
     <xf fontId="2" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf fontId="2" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf fontId="3" fillId="0" borderId="1" numFmtId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf fontId="2" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf fontId="4" fillId="0" borderId="1" numFmtId="0" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -904,7 +905,8 @@
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col customWidth="1" min="2" max="2" width="9.421875"/>
-    <col customWidth="1" min="3" max="3" width="9.00390625"/>
+    <col customWidth="1" min="3" max="3" width="26.140625"/>
+    <col customWidth="1" min="6" max="6" width="36.00390625"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25">
@@ -952,10 +954,10 @@
       <c r="D2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="8" t="s">
         <v>14</v>
       </c>
       <c r="G2" s="6" t="s">
@@ -978,16 +980,16 @@
       <c r="B3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G3" s="6" t="s">
@@ -1016,10 +1018,10 @@
       <c r="D4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="7" t="s">
         <v>28</v>
       </c>
       <c r="G4" s="6" t="s">
@@ -1042,16 +1044,16 @@
       <c r="B5" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="7" t="s">
         <v>30</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G5" s="6" t="s">
@@ -1074,16 +1076,16 @@
       <c r="B6" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="7" t="s">
         <v>34</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="7" t="s">
         <v>36</v>
       </c>
       <c r="G6" s="6" t="s">
@@ -1106,16 +1108,16 @@
       <c r="B7" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="7" t="s">
         <v>38</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="7" t="s">
         <v>40</v>
       </c>
       <c r="G7" s="6" t="s">
@@ -1138,16 +1140,16 @@
       <c r="B8" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="7" t="s">
         <v>44</v>
       </c>
       <c r="G8" s="6" t="s">
@@ -1170,16 +1172,16 @@
       <c r="B9" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="7" t="s">
         <v>46</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="7" t="s">
         <v>48</v>
       </c>
       <c r="G9" s="6" t="s">
@@ -1202,16 +1204,16 @@
       <c r="B10" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="7" t="s">
         <v>50</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="7" t="s">
         <v>52</v>
       </c>
       <c r="G10" s="6" t="s">
@@ -1234,16 +1236,16 @@
       <c r="B11" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="7" t="s">
         <v>54</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="7" t="s">
         <v>56</v>
       </c>
       <c r="G11" s="6" t="s">
@@ -1266,16 +1268,16 @@
       <c r="B12" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="7" t="s">
         <v>58</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="7" t="s">
         <v>60</v>
       </c>
       <c r="G12" s="6" t="s">
@@ -1298,16 +1300,16 @@
       <c r="B13" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="7" t="s">
         <v>62</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="7" t="s">
         <v>64</v>
       </c>
       <c r="G13" s="6" t="s">
@@ -1330,16 +1332,16 @@
       <c r="B14" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="7" t="s">
         <v>66</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="7" t="s">
         <v>68</v>
       </c>
       <c r="G14" s="6" t="s">
@@ -1362,16 +1364,16 @@
       <c r="B15" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="7" t="s">
         <v>70</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="7" t="s">
         <v>72</v>
       </c>
       <c r="G15" s="6" t="s">
@@ -1394,16 +1396,16 @@
       <c r="B16" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="7" t="s">
         <v>76</v>
       </c>
       <c r="G16" s="6" t="s">
@@ -1426,16 +1428,16 @@
       <c r="B17" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="7" t="s">
         <v>78</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="7" t="s">
         <v>80</v>
       </c>
       <c r="G17" s="6" t="s">
@@ -1458,16 +1460,16 @@
       <c r="B18" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="7" t="s">
         <v>82</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="7" t="s">
         <v>84</v>
       </c>
       <c r="G18" s="6" t="s">
@@ -1490,16 +1492,16 @@
       <c r="B19" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="7" t="s">
         <v>86</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="7" t="s">
         <v>88</v>
       </c>
       <c r="G19" s="6" t="s">
@@ -1522,16 +1524,16 @@
       <c r="B20" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="7" t="s">
         <v>90</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="7" t="s">
         <v>92</v>
       </c>
       <c r="G20" s="6" t="s">

--- a/src/main/resources/health-career-me-structure.xlsx
+++ b/src/main/resources/health-career-me-structure.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
   <si>
     <t>id</t>
   </si>
@@ -292,6 +292,24 @@
   </si>
   <si>
     <t xml:space="preserve">https://drive.google.com/file/d/1kIkooxuDjIcaPJnpqFXAxU92PWWyHOa-/view?usp=share_link </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Maher Toulaymat</t>
+  </si>
+  <si>
+    <t>fanaje@gmail.com</t>
+  </si>
+  <si>
+    <t>Maher@123</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1-GDFSOyirP1K8QxqVgc4ExoGdpTXIzg-/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>19-01-202316:48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DHA, HAAD, MOH</t>
   </si>
 </sst>
 </file>
@@ -374,7 +392,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="2" fillId="3" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -390,6 +408,11 @@
     <xf fontId="2" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf fontId="3" fillId="0" borderId="1" numFmtId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf fontId="4" fillId="0" borderId="1" numFmtId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1549,6 +1572,38 @@
         <v>23</v>
       </c>
     </row>
+    <row r="21" ht="14.25">
+      <c r="A21" s="9">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>93</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" t="s">
+        <v>95</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J21" s="11" t="s">
+        <v>98</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="C2"/>
@@ -1571,6 +1626,8 @@
     <hyperlink r:id="rId18" ref="F19"/>
     <hyperlink r:id="rId19" ref="C20"/>
     <hyperlink r:id="rId20" ref="F20"/>
+    <hyperlink r:id="rId21" ref="C21"/>
+    <hyperlink r:id="rId22" ref="F21"/>
   </hyperlinks>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
